--- a/ml/models/data/dataTmp.xlsx
+++ b/ml/models/data/dataTmp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>바지락칼국수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,26 @@
   </si>
   <si>
     <t>삼겹살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든해물음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든해물음식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,19 +805,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ14"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -951,8 +971,11 @@
       <c r="AZ1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="AZ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1267,8 +1293,11 @@
       <c r="AZ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1425,8 +1454,11 @@
       <c r="AZ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1615,11 @@
       <c r="AZ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1741,8 +1776,11 @@
       <c r="AZ6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1899,8 +1937,11 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2057,8 +2098,11 @@
       <c r="AZ8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2215,8 +2259,11 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2373,8 +2420,11 @@
       <c r="AZ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2531,8 +2581,11 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2689,8 +2742,11 @@
       <c r="AZ12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2847,8 +2903,11 @@
       <c r="AZ13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="BA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3004,6 +3063,170 @@
       </c>
       <c r="AZ14">
         <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3015,12 +3238,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3029,7 +3252,7 @@
     <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3069,8 +3292,11 @@
       <c r="N1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>"User"&amp;ROW(A2)-1</f>
         <v>User1</v>
@@ -3114,8 +3340,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">"User"&amp;ROW(A3)-1</f>
         <v>User2</v>
@@ -3159,8 +3388,11 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>User3</v>
@@ -3204,8 +3436,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>User4</v>
@@ -3249,8 +3484,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>User5</v>
@@ -3294,8 +3532,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>User6</v>
@@ -3339,8 +3580,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>User7</v>
@@ -3384,8 +3628,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>User8</v>
@@ -3429,8 +3676,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>User9</v>
@@ -3474,8 +3724,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>User10</v>
@@ -3519,8 +3772,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>User11</v>
@@ -3564,8 +3820,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>User12</v>
@@ -3609,8 +3868,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>User13</v>
@@ -3654,8 +3916,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>User14</v>
@@ -3699,8 +3964,11 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>User15</v>
@@ -3744,8 +4012,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>User16</v>
@@ -3789,8 +4060,11 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>User17</v>
@@ -3834,8 +4108,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>User18</v>
@@ -3879,8 +4156,11 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>User19</v>
@@ -3924,8 +4204,11 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>User20</v>
@@ -3969,8 +4252,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>User21</v>
@@ -4014,8 +4300,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>User22</v>
@@ -4059,8 +4348,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>User23</v>
@@ -4104,8 +4396,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>User24</v>
@@ -4149,8 +4444,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>User25</v>
@@ -4194,8 +4492,11 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>User26</v>
@@ -4239,8 +4540,11 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>User27</v>
@@ -4284,8 +4588,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>User28</v>
@@ -4329,8 +4636,11 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>User29</v>
@@ -4374,8 +4684,11 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>User30</v>
@@ -4419,8 +4732,11 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>User31</v>
@@ -4462,6 +4778,9 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>0</v>
       </c>
     </row>
@@ -4509,6 +4828,9 @@
       <c r="N33">
         <v>0</v>
       </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
@@ -4554,6 +4876,9 @@
       <c r="N34">
         <v>0</v>
       </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
@@ -4599,6 +4924,9 @@
       <c r="N35">
         <v>0</v>
       </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
@@ -4644,6 +4972,9 @@
       <c r="N36">
         <v>0</v>
       </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
@@ -4689,6 +5020,9 @@
       <c r="N37">
         <v>0</v>
       </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
@@ -4734,6 +5068,9 @@
       <c r="N38">
         <v>0</v>
       </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
@@ -4779,6 +5116,9 @@
       <c r="N39">
         <v>0</v>
       </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
@@ -4824,6 +5164,9 @@
       <c r="N40">
         <v>0</v>
       </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
@@ -4869,6 +5212,9 @@
       <c r="N41">
         <v>0</v>
       </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
@@ -4914,6 +5260,9 @@
       <c r="N42">
         <v>0</v>
       </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
@@ -4959,6 +5308,9 @@
       <c r="N43">
         <v>0</v>
       </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
@@ -5004,6 +5356,9 @@
       <c r="N44">
         <v>0</v>
       </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
@@ -5049,6 +5404,9 @@
       <c r="N45">
         <v>0</v>
       </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
@@ -5094,6 +5452,9 @@
       <c r="N46">
         <v>0</v>
       </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
@@ -5141,6 +5502,9 @@
       <c r="N47">
         <v>0</v>
       </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
@@ -5188,6 +5552,9 @@
       <c r="N48">
         <v>0</v>
       </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
@@ -5235,6 +5602,9 @@
       <c r="N49">
         <v>0</v>
       </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
@@ -5282,6 +5652,9 @@
       <c r="N50">
         <v>0</v>
       </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
@@ -5329,6 +5702,9 @@
       <c r="N51">
         <v>0</v>
       </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
@@ -5376,6 +5752,9 @@
       <c r="N52">
         <v>0</v>
       </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
@@ -5423,6 +5802,9 @@
       <c r="N53">
         <v>0</v>
       </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
@@ -5470,6 +5852,9 @@
       <c r="N54">
         <v>0</v>
       </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
@@ -5517,6 +5902,9 @@
       <c r="N55">
         <v>0</v>
       </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
@@ -5564,6 +5952,9 @@
       <c r="N56">
         <v>0</v>
       </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
@@ -5611,6 +6002,9 @@
       <c r="N57">
         <v>0</v>
       </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
@@ -5658,6 +6052,9 @@
       <c r="N58">
         <v>0</v>
       </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
@@ -5705,6 +6102,9 @@
       <c r="N59">
         <v>0</v>
       </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
@@ -5752,6 +6152,9 @@
       <c r="N60">
         <v>0</v>
       </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
@@ -5799,6 +6202,9 @@
       <c r="N61">
         <v>0</v>
       </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
@@ -5846,6 +6252,9 @@
       <c r="N62">
         <v>0</v>
       </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
@@ -5893,6 +6302,9 @@
       <c r="N63">
         <v>0</v>
       </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
@@ -5940,6 +6352,9 @@
       <c r="N64">
         <v>0</v>
       </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
@@ -5987,6 +6402,9 @@
       <c r="N65">
         <v>0</v>
       </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
@@ -6034,6 +6452,9 @@
       <c r="N66">
         <v>0</v>
       </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
@@ -6081,6 +6502,9 @@
       <c r="N67">
         <v>0</v>
       </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
@@ -6128,6 +6552,9 @@
       <c r="N68">
         <v>0</v>
       </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -6175,6 +6602,9 @@
       <c r="N69">
         <v>0</v>
       </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
@@ -6222,6 +6652,9 @@
       <c r="N70">
         <v>0</v>
       </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
@@ -6269,6 +6702,9 @@
       <c r="N71">
         <v>0</v>
       </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
@@ -6316,6 +6752,9 @@
       <c r="N72">
         <v>0</v>
       </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
@@ -6363,6 +6802,9 @@
       <c r="N73">
         <v>0</v>
       </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
@@ -6410,6 +6852,9 @@
       <c r="N74">
         <v>0</v>
       </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
@@ -6457,6 +6902,9 @@
       <c r="N75">
         <v>0</v>
       </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
@@ -6504,6 +6952,9 @@
       <c r="N76">
         <v>0</v>
       </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
@@ -6551,6 +7002,9 @@
       <c r="N77">
         <v>0</v>
       </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
@@ -6598,6 +7052,9 @@
       <c r="N78">
         <v>0</v>
       </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
@@ -6645,6 +7102,9 @@
       <c r="N79">
         <v>0</v>
       </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
@@ -6692,6 +7152,9 @@
       <c r="N80">
         <v>0</v>
       </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
@@ -6739,6 +7202,9 @@
       <c r="N81">
         <v>0</v>
       </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
@@ -6786,6 +7252,9 @@
       <c r="N82">
         <v>0</v>
       </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
@@ -6833,6 +7302,9 @@
       <c r="N83">
         <v>0</v>
       </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
@@ -6880,6 +7352,9 @@
       <c r="N84">
         <v>0</v>
       </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
@@ -6927,6 +7402,9 @@
       <c r="N85">
         <v>0</v>
       </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
@@ -6974,6 +7452,9 @@
       <c r="N86">
         <v>0</v>
       </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
@@ -7021,6 +7502,9 @@
       <c r="N87">
         <v>0</v>
       </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
@@ -7068,6 +7552,9 @@
       <c r="N88">
         <v>0</v>
       </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
@@ -7115,8 +7602,105 @@
       <c r="N89">
         <v>0</v>
       </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ml/models/data/dataTmp.xlsx
+++ b/ml/models/data/dataTmp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>바지락칼국수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,12 +409,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어쨌든해물음식</t>
+    <t>어쨌든해물찜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어쨌든해물음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>어쨌든초밥</t>
+  </si>
+  <si>
+    <t>어쨌든돈가스</t>
+  </si>
+  <si>
+    <t>어쨌든샤브샤브</t>
+  </si>
+  <si>
+    <t>어쨌든김치찌개</t>
+  </si>
+  <si>
+    <t>어쨌든고등어구이</t>
+  </si>
+  <si>
+    <t>어쨌든햄버거</t>
   </si>
 </sst>
 </file>
@@ -805,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3227,6 +3241,972 @@
       </c>
       <c r="BA15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <v>3</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>2</v>
+      </c>
+      <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>2</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3240,19 +4220,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3293,10 +4278,28 @@
         <v>90</v>
       </c>
       <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>"User"&amp;ROW(A2)-1</f>
         <v>User1</v>
@@ -3343,8 +4346,26 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">"User"&amp;ROW(A3)-1</f>
         <v>User2</v>
@@ -3391,8 +4412,26 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>User3</v>
@@ -3439,8 +4478,26 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>User4</v>
@@ -3485,10 +4542,28 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>User5</v>
@@ -3533,10 +4608,28 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>User6</v>
@@ -3583,8 +4676,26 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>User7</v>
@@ -3629,10 +4740,28 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>User8</v>
@@ -3679,8 +4808,26 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>User9</v>
@@ -3727,8 +4874,26 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>User10</v>
@@ -3773,10 +4938,28 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>User11</v>
@@ -3823,8 +5006,26 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>User12</v>
@@ -3871,8 +5072,26 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>User13</v>
@@ -3919,8 +5138,26 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>User14</v>
@@ -3967,8 +5204,26 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>User15</v>
@@ -4015,8 +5270,26 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>User16</v>
@@ -4063,8 +5336,26 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>User17</v>
@@ -4109,10 +5400,28 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>User18</v>
@@ -4157,10 +5466,28 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>User19</v>
@@ -4207,8 +5534,26 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>User20</v>
@@ -4255,8 +5600,26 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>User21</v>
@@ -4303,8 +5666,26 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>User22</v>
@@ -4349,10 +5730,28 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>User23</v>
@@ -4399,8 +5798,26 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>User24</v>
@@ -4447,8 +5864,26 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>User25</v>
@@ -4495,8 +5930,26 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>User26</v>
@@ -4543,8 +5996,26 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>User27</v>
@@ -4591,8 +6062,26 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>User28</v>
@@ -4639,8 +6128,26 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>User29</v>
@@ -4687,8 +6194,26 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>User30</v>
@@ -4735,8 +6260,26 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>User31</v>
@@ -4782,6 +6325,24 @@
       </c>
       <c r="O32">
         <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.4">
@@ -4831,6 +6392,24 @@
       <c r="O33">
         <v>0</v>
       </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
@@ -4879,6 +6458,24 @@
       <c r="O34">
         <v>0</v>
       </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
@@ -4925,7 +6522,25 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.4">
@@ -4975,6 +6590,24 @@
       <c r="O36">
         <v>0</v>
       </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
@@ -5021,7 +6654,25 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.4">
@@ -5071,6 +6722,24 @@
       <c r="O38">
         <v>0</v>
       </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
@@ -5119,6 +6788,24 @@
       <c r="O39">
         <v>0</v>
       </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
@@ -5167,6 +6854,24 @@
       <c r="O40">
         <v>0</v>
       </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
@@ -5215,6 +6920,24 @@
       <c r="O41">
         <v>0</v>
       </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
@@ -5261,6 +6984,24 @@
         <v>0</v>
       </c>
       <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
         <v>0</v>
       </c>
     </row>
@@ -5311,6 +7052,24 @@
       <c r="O43">
         <v>0</v>
       </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
@@ -5357,7 +7116,25 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5405,7 +7182,25 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5455,7 +7250,24 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="U46" s="1"/>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5505,7 +7317,24 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="U47" s="1"/>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5553,9 +7382,26 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5603,9 +7449,26 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="U49" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5653,9 +7516,26 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,9 +7583,26 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5753,9 +7650,26 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5805,7 +7719,24 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="U53" s="1"/>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5855,7 +7786,24 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="U54" s="1"/>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5903,9 +7851,26 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="U55" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5955,7 +7920,24 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="U56" s="1"/>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6005,7 +7987,24 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="U57" s="1"/>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6053,9 +8052,26 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="U58" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6105,7 +8121,24 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="U59" s="1"/>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6155,7 +8188,24 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="U60" s="1"/>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6205,7 +8255,24 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="U61" s="1"/>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6253,9 +8320,26 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="U62" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6303,9 +8387,26 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6353,9 +8454,26 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6403,9 +8521,26 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6455,7 +8590,24 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="U66" s="1"/>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6503,9 +8655,26 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
       <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6555,7 +8724,24 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="U68" s="1"/>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6603,9 +8789,26 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="U69" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6655,7 +8858,24 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="U70" s="1"/>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6703,9 +8923,26 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="U71" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
       <c r="V71" s="1"/>
     </row>
     <row r="72" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6753,9 +8990,26 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="U72" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
       <c r="V72" s="1"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6803,9 +9057,26 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="U73" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
       <c r="V73" s="1"/>
     </row>
     <row r="74" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6855,7 +9126,24 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="U74" s="1"/>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6905,7 +9193,24 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="U75" s="1"/>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6953,9 +9258,26 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="U76" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7003,9 +9325,26 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="U77" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7053,9 +9392,26 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="U78" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7105,7 +9461,24 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="U79" s="1"/>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7153,9 +9526,26 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="U80" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
       <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7203,9 +9593,26 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="U81" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
       <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7255,7 +9662,24 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="U82" s="1"/>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
       <c r="V82" s="1"/>
     </row>
     <row r="83" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7305,7 +9729,24 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="U83" s="1"/>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
       <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7353,9 +9794,26 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="U84" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
       <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7403,9 +9861,26 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="U85" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
       <c r="V85" s="1"/>
     </row>
     <row r="86" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7453,9 +9928,26 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="U86" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
       <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7503,9 +9995,26 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="U87" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
       <c r="V87" s="1"/>
     </row>
     <row r="88" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7553,9 +10062,26 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="U88" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
       <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7603,9 +10129,26 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="U89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
       <c r="V89" s="1"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.4">
@@ -7654,6 +10197,24 @@
       <c r="O90">
         <v>0</v>
       </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
@@ -7699,6 +10260,24 @@
         <v>0</v>
       </c>
       <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +10292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -10491,7 +13070,7 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/ml/models/data/dataTmp.xlsx
+++ b/ml/models/data/dataTmp.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>바지락칼국수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,14 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +423,38 @@
   </si>
   <si>
     <t>어쨌든햄버거</t>
+  </si>
+  <si>
+    <t>할무니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외할머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외할아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시어머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -986,7 +1012,7 @@
         <v>88</v>
       </c>
       <c r="BA1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.4">
@@ -3084,7 +3110,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3245,7 +3271,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3406,7 +3432,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3567,7 +3593,7 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3728,7 +3754,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3889,7 +3915,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4050,7 +4076,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4218,12 +4244,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4278,25 +4304,25 @@
         <v>90</v>
       </c>
       <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>97</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>98</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>99</v>
-      </c>
-      <c r="T1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -10150,136 +10176,6 @@
         <v>0</v>
       </c>
       <c r="V89" s="1"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>1</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>1</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10292,8 +10188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19396,4 +19292,2768 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1940</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1940</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1940</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1970</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1970</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1970</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1940</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1970</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1930</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1950</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1930</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1940</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1960</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1950</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1940</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1950</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1960</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1930</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1960</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1950</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1960</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1960</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1950</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1950</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1950</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1970</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1940</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1970</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1970</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1950</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1930</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1960</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1950</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1930</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1940</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1970</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1960</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1970</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1960</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1950</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1930</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1940</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1960</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1930</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1960</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1970</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1930</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1950</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1960</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1930</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1970</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1970</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1940</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1940</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1950</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1970</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1970</v>
+      </c>
+      <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1930</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1930</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1950</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1950</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1970</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1960</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1960</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1960</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1960</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1960</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1950</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1940</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1960</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1960</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1950</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1930</v>
+      </c>
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1950</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1950</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1970</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1960</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1950</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1930</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1940</v>
+      </c>
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1950</v>
+      </c>
+      <c r="D82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1940</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1950</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1960</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1960</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1940</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1940</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>